--- a/medicine/Psychotrope/Ghemme_(DOCG)/Ghemme_(DOCG).xlsx
+++ b/medicine/Psychotrope/Ghemme_(DOCG)/Ghemme_(DOCG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Ghemme est un vin italien de la région Piémont dont les appellations sont dotés d'une appellation DOCG depuis le 29 mai 1996. Seuls ont droit à la DOCG les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Novare dans la commune de Ghemme et dans la commune de Romagnano Sesia. La superficie plantée en vignes est de 58,26 hectares.
@@ -515,7 +527,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de délimitation de l'appellation Ghemme (DOCG)
 Couleur : rouge rubis  avec des reflets grenat
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rôtis de viande rouge, le gibier, les fromages à pâte dure
 </t>
@@ -607,7 +625,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles
